--- a/src/test/resources/TestData/testwebsite.xlsx
+++ b/src/test/resources/TestData/testwebsite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Class\eclipse-Maven Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3C6DEE-C380-4E95-AF58-4AB1953953E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118DE677-65DE-4A14-BEB6-FB0C95B9D840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{7F24CA5A-F336-4063-BF86-DBF8105CCBD8}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/testwebsite.xlsx
+++ b/src/test/resources/TestData/testwebsite.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA Class\eclipse-Maven Project\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118DE677-65DE-4A14-BEB6-FB0C95B9D840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BBCDE6-D55E-46BA-87BA-4F7A1DE16A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{7F24CA5A-F336-4063-BF86-DBF8105CCBD8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{7F24CA5A-F336-4063-BF86-DBF8105CCBD8}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="signin" sheetId="1" r:id="rId2"/>
-    <sheet name="search" sheetId="3" r:id="rId3"/>
+    <sheet name="l" sheetId="4" r:id="rId3"/>
+    <sheet name="search" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>emial</t>
   </si>
@@ -96,6 +97,18 @@
   </si>
   <si>
     <t>lp</t>
+  </si>
+  <si>
+    <t>sonu@gmaila.com</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Rohan@123</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
 </sst>
 </file>
@@ -502,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0FC751-25E7-4981-BAE7-C3E1435BEEF9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +606,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E12EB2-5DAC-4ED1-80C8-EDADD89D021C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1ECCF529-00B5-463D-A05D-2E0C805A7B89}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{6211265E-90E0-4A7B-98E1-E6B2CF45EFF4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47673A93-E381-4F6A-95D5-E98604145878}">
   <dimension ref="A1:A2"/>
   <sheetViews>
